--- a/Bootcamp Inter Android Developer/Git e GitHub/Lista de Comandos Terminal Windows - Linux.xlsx
+++ b/Bootcamp Inter Android Developer/Git e GitHub/Lista de Comandos Terminal Windows - Linux.xlsx
@@ -99,28 +99,32 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,13 +151,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
